--- a/SDL Game Framework/SDL Game Framework/20220519_DB.xlsx
+++ b/SDL Game Framework/SDL Game Framework/20220519_DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="223">
   <si>
     <t>ID</t>
   </si>
@@ -220,7 +220,7 @@
     <t>▶눈을 뜬다.</t>
   </si>
   <si>
-    <t>ID_7_ sprinkle_water.wav</t>
+    <t>ID_7_sprinkle_water.wav</t>
   </si>
   <si>
     <t>8-1</t>
@@ -832,9 +832,6 @@
   </si>
   <si>
     <t>▶ 시체를 들고 마을 광장으로 나간다.</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t xml:space="preserve">수상한 사내의 인상착의를 알려주며 본 적 있냐고 물었다. 
@@ -1084,13 +1081,13 @@
     <t>▶ 두렵다. 두려움을 이기지 못하고 얼굴을 보지 않는다.</t>
   </si>
   <si>
+    <t>▶ 하지만 진실을 알아야 한다. 남자의 얼굴을 확인한다.</t>
+  </si>
+  <si>
+    <t>ID_47_Man_sigh2.wav</t>
+  </si>
+  <si>
     <t>48</t>
-  </si>
-  <si>
-    <t>▶ 하지만 진실을 알아야 한다. 남자의 얼굴을 확인한다.</t>
-  </si>
-  <si>
-    <t>ID_47_Man_sigh2.wav</t>
   </si>
   <si>
     <t>분기 1 종료</t>
@@ -2728,9 +2725,7 @@
       <c r="D37" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>172</v>
-      </c>
+      <c r="E37" s="20"/>
       <c r="F37" s="30"/>
       <c r="G37" s="12"/>
       <c r="H37" s="11"/>
@@ -2750,13 +2745,13 @@
         <v>117</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>144</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
@@ -2771,19 +2766,19 @@
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="C39" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="D39" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="E39" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>178</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
@@ -2793,7 +2788,7 @@
         <v>15</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L39" s="13">
         <v>0.0</v>
@@ -2804,16 +2799,16 @@
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="D40" s="28" t="s">
         <v>181</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>182</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>20</v>
@@ -2826,7 +2821,7 @@
         <v>15</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L40" s="13">
         <v>0.0</v>
@@ -2838,16 +2833,16 @@
         <v>121</v>
       </c>
       <c r="B41" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="D41" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="E41" s="20" t="s">
         <v>186</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>187</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
@@ -2862,19 +2857,19 @@
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="C42" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="D42" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="E42" s="20" t="s">
         <v>190</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>191</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="12"/>
@@ -2889,25 +2884,25 @@
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C43" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="E43" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="F43" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="G43" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>196</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -2915,7 +2910,7 @@
         <v>15</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L43" s="13">
         <v>0.0</v>
@@ -2926,13 +2921,13 @@
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D44" s="28" t="s">
         <v>33</v>
@@ -2948,7 +2943,7 @@
         <v>15</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L44" s="19">
         <v>0.0</v>
@@ -2957,19 +2952,19 @@
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B45" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="D45" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="E45" s="20" t="s">
         <v>202</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>203</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
@@ -2986,19 +2981,19 @@
     </row>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="C46" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="D46" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="E46" s="20" t="s">
         <v>206</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>207</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
@@ -3008,7 +3003,7 @@
         <v>15</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L46" s="13">
         <v>0.0</v>
@@ -3017,13 +3012,13 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B47" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>33</v>
@@ -3049,16 +3044,16 @@
         <v>123</v>
       </c>
       <c r="B48" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="D48" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="E48" s="32" t="s">
         <v>213</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="34"/>
@@ -3073,33 +3068,29 @@
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="C49" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="D49" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="E49" s="32"/>
+      <c r="F49" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="E49" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>218</v>
-      </c>
+      <c r="G49" s="32"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
       <c r="J49" s="13" t="s">
         <v>15</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L49" s="35">
         <v>0.0</v>
@@ -3108,16 +3099,16 @@
     </row>
     <row r="50" ht="154.5" customHeight="1">
       <c r="A50" s="36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B50" s="37" t="s">
         <v>149</v>
       </c>
       <c r="C50" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="39" t="s">
         <v>221</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>222</v>
       </c>
       <c r="E50" s="40"/>
       <c r="F50" s="41"/>
@@ -3128,7 +3119,7 @@
         <v>15</v>
       </c>
       <c r="K50" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L50" s="35">
         <v>1.0</v>
